--- a/test.xlsx
+++ b/test.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ainmal9/soso/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEC5247-016E-1348-9328-50730BA14F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B873E194-C0A1-2141-8D0A-54ECC6399D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="-1640" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{214E2727-53F2-8C43-8BAA-95CBF768AF60}"/>
+    <workbookView xWindow="33600" yWindow="-1640" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{214E2727-53F2-8C43-8BAA-95CBF768AF60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,45 +38,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="103">
   <si>
     <t>storeZoneOne</t>
   </si>
   <si>
     <t>오포레이션명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>성공여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>https://soso-seven.vercel.app/soso?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>servicekey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>storeZoneInRadius</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>testserver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>storeZoneInRectangle</t>
@@ -112,173 +113,352 @@
   </si>
   <si>
     <t>reqStoreModify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>largeUpjongList</t>
   </si>
   <si>
     <t>middleUpjongList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>smallUpjongList</t>
   </si>
   <si>
     <t>baroApi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/B553077/api/open/sdsc2/reqStoreModify?ServiceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D&amp;bizesId=10868815&amp;bizesNm=백다방&amp;dongNo=101동....</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/B553077/api/open/sdsc2/storeZoneInRectangle?minx=126.978020&amp;miny=37.557825&amp;maxx=126.987732&amp;maxy=37.562022&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/B553077/api/open/sdsc2/storeZoneInAdmi?divId=ctprvnCd&amp;key=11&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/B553077/api/open/sdsc2/storeOne?key=19911025&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/B553077/api/open/sdsc2/storeListInBuilding?key=3017011200113530000022216&amp;indsLclsCd=Q&amp;indsMclsCd=Q12&amp;indsSclsCd=Q12A01&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/B553077/api/open/sdsc2/storeListInPnu?key=1123010300207370002&amp;indsLclsCd=D&amp;indsMclsCd=D10&amp;indsSclsCd=D10A05&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/B553077/api/open/sdsc2/storeListInDong?divId=ctprvnCd&amp;key=11&amp;indsMclsCd=Q12&amp;indsSclsCd=Q12A01&amp;divId=ctprvnCd&amp;numOfRows=2&amp;pageNo=1&amp;type=xml&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/B553077/api/open/sdsc2/storeListInArea?key=1882&amp;indsLclsCd=Q&amp;indsMclsCd=Q12&amp;indsSclsCd=Q12A01&amp;numOfRows=2&amp;pageNo=1&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/B553077/api/open/sdsc2/storeListInPolygon?key=POLYGON ((126.9204728 35.1523226,126.9192728 35.1531925,126.9181257 35.1522507,126.9193808 35.1514315,126.9204728 35.1523226))&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/B553077/api/open/sdsc2/storeListInUpjong?divId=indsLclsCd&amp;key=Q&amp;numOfRows=1&amp;pageNo=1&amp;type=xml&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/B553077/api/open/sdsc2/storeListByDate?key=20210602&amp;indsLclsCd=Q&amp;indsMclsCd=Q12&amp;indsSclsCd=Q12A01&amp;numOfRows=1&amp;pageNo=1&amp;type=xml&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/B553077/api/open/sdsc2/largeUpjongList?serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/B553077/api/open/sdsc2/middleUpjongList?indsLclsCd=D&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/B553077/api/open/sdsc2/smallUpjongList?indsLclsCd=Q&amp;indsMclsCd=Q01&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/B553077/api/open/sdsc2/baroApi?resId=dong&amp;catId=mega&amp;ServiceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>http://apis.data.go.kr/B553077/api/open/sdsc2/storeZoneOne?key=9174&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://soso-seven.vercel.app/soso?key=9174&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://soso-seven.vercel.app/soso?radius=500&amp;cx=127.004528&amp;cy=37.567538&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://soso-seven.vercel.app/soso?minx=126.978020&amp;miny=37.557825&amp;maxx=126.987732&amp;maxy=37.562022&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://soso-seven.vercel.app/soso?divId=ctprvnCd&amp;key=11&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://soso-seven.vercel.app/soso?key=19911025&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://soso-seven.vercel.app/soso?key=3017011200113530000022216&amp;indsLclsCd=Q&amp;indsMclsCd=Q12&amp;indsSclsCd=Q12A01&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://soso-seven.vercel.app/soso?key=1123010300207370002&amp;indsLclsCd=D&amp;indsMclsCd=D10&amp;indsSclsCd=D10A05&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://soso-seven.vercel.app/soso?divId=ctprvnCd&amp;key=11&amp;indsMclsCd=Q12&amp;indsSclsCd=Q12A01&amp;divId=ctprvnCd&amp;numOfRows=2&amp;pageNo=1&amp;type=xml&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://soso-seven.vercel.app/soso?key=1882&amp;indsLclsCd=Q&amp;indsMclsCd=Q12&amp;indsSclsCd=Q12A01&amp;numOfRows=2&amp;pageNo=1&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://soso-seven.vercel.app/soso?key=POLYGON ((126.9204728 35.1523226,126.9192728 35.1531925,126.9181257 35.1522507,126.9193808 35.1514315,126.9204728 35.1523226))&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://soso-seven.vercel.app/soso?key=20210602&amp;indsLclsCd=Q&amp;indsMclsCd=Q12&amp;indsSclsCd=Q12A01&amp;numOfRows=1&amp;pageNo=1&amp;type=xml&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://soso-seven.vercel.app/soso?ServiceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D&amp;bizesId=10868815&amp;bizesNm=백다방&amp;dongNo=101동....</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://soso-seven.vercel.app/soso?serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeListInPolygon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/B553077/api/open/sdsc2/storeListInRectangle?minx=127.034113&amp;miny=37.509715&amp;maxx=127.035730&amp;maxy=37.510824&amp;indsLclsCd=Q&amp;indsMclsCd=Q12&amp;indsSclsCd=Q12A01&amp;numOfRows=2&amp;pageNo=1&amp;type=xml&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://soso-seven.vercel.app/soso?resId=dong&amp;catId=mega&amp;ServiceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://soso-seven.vercel.app/soso?indsLclsCd=Q&amp;indsMclsCd=Q01&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://soso-seven.vercel.app/soso?divId=indsLclsCd&amp;key=Q&amp;numOfRows=1&amp;pageNo=1&amp;type=xml&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>http://apis.data.go.kr/B553077/api/open/sdsc2/storeZoneInRadius?radius=500&amp;cx=127.004528&amp;cy=37.567538&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/B553077/api/open/sdsc2/reqStoreModify?ServiceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D&amp;bizesId=10868815&amp;bizesNm=백다방&amp;dongNo=101동....</t>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/B553077/api/open/sdsc2/storeZoneInRectangle?minx=126.978020&amp;miny=37.557825&amp;maxx=126.987732&amp;maxy=37.562022&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/B553077/api/open/sdsc2/storeZoneInAdmi?divId=ctprvnCd&amp;key=11&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/B553077/api/open/sdsc2/storeOne?key=19911025&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/B553077/api/open/sdsc2/storeListInBuilding?key=3017011200113530000022216&amp;indsLclsCd=Q&amp;indsMclsCd=Q12&amp;indsSclsCd=Q12A01&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/B553077/api/open/sdsc2/storeListInPnu?key=1123010300207370002&amp;indsLclsCd=D&amp;indsMclsCd=D10&amp;indsSclsCd=D10A05&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/B553077/api/open/sdsc2/storeListInDong?divId=ctprvnCd&amp;key=11&amp;indsMclsCd=Q12&amp;indsSclsCd=Q12A01&amp;divId=ctprvnCd&amp;numOfRows=2&amp;pageNo=1&amp;type=xml&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/B553077/api/open/sdsc2/storeListInArea?key=1882&amp;indsLclsCd=Q&amp;indsMclsCd=Q12&amp;indsSclsCd=Q12A01&amp;numOfRows=2&amp;pageNo=1&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/B553077/api/open/sdsc2/storeListInPolygon?key=POLYGON ((126.9204728 35.1523226,126.9192728 35.1531925,126.9181257 35.1522507,126.9193808 35.1514315,126.9204728 35.1523226))&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/B553077/api/open/sdsc2/storeListInUpjong?divId=indsLclsCd&amp;key=Q&amp;numOfRows=1&amp;pageNo=1&amp;type=xml&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/B553077/api/open/sdsc2/storeListByDate?key=20210602&amp;indsLclsCd=Q&amp;indsMclsCd=Q12&amp;indsSclsCd=Q12A01&amp;numOfRows=1&amp;pageNo=1&amp;type=xml&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/B553077/api/open/sdsc2/largeUpjongList?serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/B553077/api/open/sdsc2/middleUpjongList?indsLclsCd=D&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/B553077/api/open/sdsc2/smallUpjongList?indsLclsCd=Q&amp;indsMclsCd=Q01&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/B553077/api/open/sdsc2/baroApi?resId=dong&amp;catId=mega&amp;ServiceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://soso-seven.vercel.app/soso?key=9174&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://soso-seven.vercel.app/soso?radius=500&amp;cx=127.004528&amp;cy=37.567538&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://soso-seven.vercel.app/soso?minx=126.978020&amp;miny=37.557825&amp;maxx=126.987732&amp;maxy=37.562022&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://soso-seven.vercel.app/soso?divId=ctprvnCd&amp;key=11&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://soso-seven.vercel.app/soso?key=19911025&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://soso-seven.vercel.app/soso?key=3017011200113530000022216&amp;indsLclsCd=Q&amp;indsMclsCd=Q12&amp;indsSclsCd=Q12A01&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://soso-seven.vercel.app/soso?key=1123010300207370002&amp;indsLclsCd=D&amp;indsMclsCd=D10&amp;indsSclsCd=D10A05&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://soso-seven.vercel.app/soso?divId=ctprvnCd&amp;key=11&amp;indsMclsCd=Q12&amp;indsSclsCd=Q12A01&amp;divId=ctprvnCd&amp;numOfRows=2&amp;pageNo=1&amp;type=xml&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://soso-seven.vercel.app/soso?key=1882&amp;indsLclsCd=Q&amp;indsMclsCd=Q12&amp;indsSclsCd=Q12A01&amp;numOfRows=2&amp;pageNo=1&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://soso-seven.vercel.app/soso?minx=127.034113&amp;miny=37.509715&amp;maxx=127.035730&amp;maxy=37.510824&amp;indsLclsCd=Q&amp;indsMclsCd=Q12&amp;indsSclsCd=Q12A01&amp;numOfRows=2&amp;pageNo=1&amp;type=xml&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://soso-seven.vercel.app/soso?key=POLYGON ((126.9204728 35.1523226,126.9192728 35.1531925,126.9181257 35.1522507,126.9193808 35.1514315,126.9204728 35.1523226))&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://soso-seven.vercel.app/soso?key=20210602&amp;indsLclsCd=Q&amp;indsMclsCd=Q12&amp;indsSclsCd=Q12A01&amp;numOfRows=1&amp;pageNo=1&amp;type=xml&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://soso-seven.vercel.app/soso?ServiceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D&amp;bizesId=10868815&amp;bizesNm=백다방&amp;dongNo=101동....</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://soso-seven.vercel.app/soso?serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://soso-seven.vercel.app/soso?indsLclsCd=D&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storeListInPolygon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/B553077/api/open/sdsc2/storeListInRectangle?minx=127.034113&amp;miny=37.509715&amp;maxx=127.035730&amp;maxy=37.510824&amp;indsLclsCd=Q&amp;indsMclsCd=Q12&amp;indsSclsCd=Q12A01&amp;numOfRows=2&amp;pageNo=1&amp;type=xml&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://soso-seven.vercel.app/soso?resId=dong&amp;catId=mega&amp;ServiceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://soso-seven.vercel.app/soso?indsLclsCd=Q&amp;indsMclsCd=Q01&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://soso-seven.vercel.app/soso?divId=indsLclsCd&amp;key=Q&amp;numOfRows=1&amp;pageNo=1&amp;type=xml&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://soso-seven.vercel.app/soso?operation=middleUpjongList&amp;indsLclsCd=D&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeListInRadius</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://soso-seven.vercel.app/soso?operation=storeListInRadius&amp;minx=127.034113&amp;miny=37.509715&amp;maxx=127.035730&amp;maxy=37.510824&amp;indsLclsCd=Q&amp;indsMclsCd=Q12&amp;indsSclsCd=Q12A01&amp;numOfRows=2&amp;pageNo=1&amp;type=xml&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeZoneOne?key=9174&amp;servicekey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+  </si>
+  <si>
+    <t>storeZoneInRadius&amp;radius=500&amp;cx=127.004528&amp;cy=37.567538&amp;servicekey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeZoneInRectangle&amp;minx=126.978020&amp;miny=37.557825&amp;maxx=126.987732&amp;maxy=37.562022&amp;servicekey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeZoneInAdmi&amp;divId=ctprvnCd&amp;key=11&amp;servicekey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeOne&amp;key=19911025&amp;servicekey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeListInBuilding&amp;key=3017011200113530000022216&amp;indsLclsCd=Q&amp;indsMclsCd=Q12&amp;indsSclsCd=Q12A01&amp;servicekey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeListInPnu&amp;key=1123010300207370002&amp;indsLclsCd=D&amp;indsMclsCd=D10&amp;indsSclsCd=D10A05&amp;servicekey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeListInDong&amp;divId=ctprvnCd&amp;key=11&amp;indsMclsCd=Q12&amp;indsSclsCd=Q12A01&amp;divId=ctprvnCd&amp;numOfRows=2&amp;pageNo=1&amp;type=xml&amp;servicekey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeListInArea&amp;key=1882&amp;indsLclsCd=Q&amp;indsMclsCd=Q12&amp;indsSclsCd=Q12A01&amp;numOfRows=2&amp;pageNo=1&amp;servicekey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeListInRectangle&amp;minx=127.034113&amp;miny=37.509715&amp;maxx=127.035730&amp;maxy=37.510824&amp;indsLclsCd=Q&amp;indsMclsCd=Q12&amp;indsSclsCd=Q12A01&amp;numOfRows=2&amp;pageNo=1&amp;type=xml&amp;servicekey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeListInPolygon&amp;key=POLYGON ((126.9204728 35.1523226,126.9192728 35.1531925,126.9181257 35.1522507,126.9193808 35.1514315,126.9204728 35.1523226))&amp;servicekey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeListInUpjong&amp;divId=indsLclsCd&amp;key=Q&amp;numOfRows=1&amp;pageNo=1&amp;type=xml&amp;servicekey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>storeListByDate</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>key=20210602&amp;indsLclsCd=Q&amp;indsMclsCd=Q12&amp;indsSclsCd=Q12A01&amp;numOfRows=1&amp;pageNo=1&amp;type=xml&amp;servicekey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reqStoreModify&amp;servicekey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D&amp;bizesId=10868815&amp;bizesNm=백다방&amp;dongNo=101동....</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>largeUpjongList&amp;servicekey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>middleUpjongList&amp;indsLclsCd=D&amp;servicekey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>smallUpjongList&amp;indsLclsCd=Q&amp;indsMclsCd=Q01&amp;servicekey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>baroApi&amp;resId=dong&amp;catId=mega&amp;servicekey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://soso-seven.vercel.app/soso?operation=</t>
+  </si>
+  <si>
+    <t>https://soso-seven.vercel.app/soso?operation=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://soso-seven.vercel.app/soso?operation=storeZoneOne?key=9174&amp;servicekey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>https://soso-seven.vercel.app/soso?operation=storeZoneInRadius&amp;radius=500&amp;cx=127.004528&amp;cy=37.567538&amp;servicekey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://soso-seven.vercel.app/soso?operation=storeZoneInRectangle&amp;minx=126.978020&amp;miny=37.557825&amp;maxx=126.987732&amp;maxy=37.562022&amp;servicekey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://soso-seven.vercel.app/soso?operation=storeZoneInAdmi&amp;divId=ctprvnCd&amp;key=11&amp;servicekey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://soso-seven.vercel.app/soso?operation=storeOne&amp;key=19911025&amp;servicekey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://soso-seven.vercel.app/soso?operation=storeListInBuilding&amp;key=3017011200113530000022216&amp;indsLclsCd=Q&amp;indsMclsCd=Q12&amp;indsSclsCd=Q12A01&amp;servicekey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://soso-seven.vercel.app/soso?operation=storeListInPnu&amp;key=1123010300207370002&amp;indsLclsCd=D&amp;indsMclsCd=D10&amp;indsSclsCd=D10A05&amp;servicekey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://soso-seven.vercel.app/soso?operation=storeListInDong&amp;divId=ctprvnCd&amp;key=11&amp;indsMclsCd=Q12&amp;indsSclsCd=Q12A01&amp;divId=ctprvnCd&amp;numOfRows=2&amp;pageNo=1&amp;type=xml&amp;servicekey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://soso-seven.vercel.app/soso?operation=storeListInArea&amp;key=1882&amp;indsLclsCd=Q&amp;indsMclsCd=Q12&amp;indsSclsCd=Q12A01&amp;numOfRows=2&amp;pageNo=1&amp;servicekey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://soso-seven.vercel.app/soso?operation=storeListInRectangle&amp;minx=127.034113&amp;miny=37.509715&amp;maxx=127.035730&amp;maxy=37.510824&amp;indsLclsCd=Q&amp;indsMclsCd=Q12&amp;indsSclsCd=Q12A01&amp;numOfRows=2&amp;pageNo=1&amp;type=xml&amp;servicekey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://soso-seven.vercel.app/soso?operation=storeListInPolygon&amp;key=POLYGON ((126.9204728 35.1523226,126.9192728 35.1531925,126.9181257 35.1522507,126.9193808 35.1514315,126.9204728 35.1523226))&amp;servicekey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://soso-seven.vercel.app/soso?operation=storeListInUpjong&amp;divId=indsLclsCd&amp;key=Q&amp;numOfRows=1&amp;pageNo=1&amp;type=xml&amp;servicekey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://soso-seven.vercel.app/soso?operation=storeListByDate&amp;key=20210602&amp;indsLclsCd=Q&amp;indsMclsCd=Q12&amp;indsSclsCd=Q12A01&amp;numOfRows=1&amp;pageNo=1&amp;type=xml&amp;servicekey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://soso-seven.vercel.app/soso?operation=reqStoreModify&amp;servicekey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D&amp;bizesId=10868815&amp;bizesNm=백다방&amp;dongNo=101동....</t>
+  </si>
+  <si>
+    <t>https://soso-seven.vercel.app/soso?operation=largeUpjongList&amp;servicekey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://soso-seven.vercel.app/soso?operation=middleUpjongList&amp;indsLclsCd=D&amp;servicekey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://soso-seven.vercel.app/soso?operation=smallUpjongList&amp;indsLclsCd=Q&amp;indsMclsCd=Q01&amp;servicekey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://soso-seven.vercel.app/soso?operation=baroApi&amp;resId=dong&amp;catId=mega&amp;servicekey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="7">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -320,6 +500,16 @@
       <charset val="129"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -338,31 +528,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
+    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -697,7 +897,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B36" sqref="B2:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -732,8 +932,8 @@
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
-        <v>26</v>
+      <c r="D2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
@@ -759,8 +959,8 @@
         <v>7</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="3" t="s">
-        <v>27</v>
+      <c r="D4" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -780,7 +980,7 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -800,7 +1000,7 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -820,7 +1020,7 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -840,7 +1040,7 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -860,7 +1060,7 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -880,7 +1080,7 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -900,7 +1100,7 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -920,7 +1120,7 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -940,7 +1140,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -960,7 +1160,7 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -980,7 +1180,7 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -1000,7 +1200,7 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1020,7 +1220,7 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -1040,7 +1240,7 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1060,7 +1260,7 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -1080,7 +1280,7 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -1098,16 +1298,16 @@
       <c r="B41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="1" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{F7E9B6CF-DD71-0D41-8BAA-9DF43C8E3678}"/>
-    <hyperlink ref="D2" r:id="rId2" display="http://apis.data.go.kr/B553077/api/open/sdsc2/storeZoneOne?key=9174&amp;serviceKey=서비스인증키" xr:uid="{B73481BA-979D-9B42-9AD8-B2189F3D61CC}"/>
-    <hyperlink ref="D4" r:id="rId3" display="http://apis.data.go.kr/B553077/api/open/sdsc2/storeZoneInRadius?radius=500&amp;cx=127.004528&amp;cy=37.567538&amp;serviceKey=서비스인증키" xr:uid="{4291FB32-2EF4-5246-8227-ECBAA8D3A065}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{B73481BA-979D-9B42-9AD8-B2189F3D61CC}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{4291FB32-2EF4-5246-8227-ECBAA8D3A065}"/>
     <hyperlink ref="D20" r:id="rId4" display="http://apis.data.go.kr/B553077/api/open/sdsc2/storeListInRectangle?minx=127.034113&amp;miny=37.509715&amp;maxx=127.035730&amp;maxy=37.510824&amp;indsLclsCd=Q&amp;indsMclsCd=Q12&amp;indsSclsCd=Q12A01&amp;numOfRows=2&amp;pageNo=1&amp;type=xml&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D" xr:uid="{A0565A67-0D2A-0449-BBD8-B325E377700D}"/>
     <hyperlink ref="D28" r:id="rId5" display="http://apis.data.go.kr/B553077/api/open/sdsc2/reqStoreModify?ServiceKey=서비스인증키&amp;bizesId=10868815&amp;bizesNm=백다방&amp;dongNo=101동...." xr:uid="{701346D9-B254-B346-81AF-9CA9F64D9A02}"/>
     <hyperlink ref="D30" r:id="rId6" xr:uid="{023B0E9E-8238-5E44-B25B-D2AE1D2C0E39}"/>
@@ -1127,15 +1327,16 @@
     <hyperlink ref="D34" r:id="rId20" xr:uid="{7CCF09F7-FD7A-9745-B5C5-EA42C5D3B89E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDCA4F97-C1E4-B248-B508-B58A7820F4DB}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1171,14 +1372,14 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1198,7 +1399,7 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1218,7 +1419,7 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1238,7 +1439,7 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1258,7 +1459,7 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1278,7 +1479,7 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1298,7 +1499,7 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1318,7 +1519,7 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1338,7 +1539,7 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1354,11 +1555,11 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1374,11 +1575,11 @@
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1398,7 +1599,7 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1418,7 +1619,7 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -1438,7 +1639,7 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1458,7 +1659,7 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -1478,7 +1679,7 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1498,7 +1699,7 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -1518,7 +1719,7 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -1540,12 +1741,21 @@
         <v>4</v>
       </c>
     </row>
+    <row r="43" spans="2:7">
+      <c r="D43" s="4">
+        <v>375097000</v>
+      </c>
+      <c r="E43" s="5">
+        <f>D43*1%</f>
+        <v>3750970</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{3A83A85F-B6D4-8949-8A1F-B84451D324BA}"/>
     <hyperlink ref="D4" r:id="rId2" xr:uid="{0FC5937B-1B29-0349-B7F6-3C7ED25E06DB}"/>
-    <hyperlink ref="D20" r:id="rId3" display="https://soso-seven.vercel.app/soso?minx=127.034113&amp;miny=37.509715&amp;maxx=127.035730&amp;maxy=37.510824&amp;indsLclsCd=Q&amp;indsMclsCd=Q12&amp;indsSclsCd=Q12A01&amp;numOfRows=2&amp;pageNo=1&amp;type=xml&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D" xr:uid="{1A4DC99C-F212-1545-BFAE-F3A8083BB0F6}"/>
+    <hyperlink ref="D20" r:id="rId3" display="https://soso-seven.vercel.app/soso?operation=storeListInRadius&amp;minx=127.034113&amp;miny=37.509715&amp;maxx=127.035730&amp;maxy=37.510824&amp;indsLclsCd=Q&amp;indsMclsCd=Q12&amp;indsSclsCd=Q12A01&amp;numOfRows=2&amp;pageNo=1&amp;type=xml&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D" xr:uid="{1A4DC99C-F212-1545-BFAE-F3A8083BB0F6}"/>
     <hyperlink ref="D28" r:id="rId4" xr:uid="{C7BCB596-E9A1-A64A-98A8-C2DCD1F0FFB7}"/>
     <hyperlink ref="D30" r:id="rId5" xr:uid="{4BB18C3E-30F8-DA45-ACCC-7C3F4A64E472}"/>
     <hyperlink ref="D36" r:id="rId6" xr:uid="{92E5956A-D366-7E43-AF78-AF1E395DC55F}"/>
@@ -1566,4 +1776,428 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24C0D98-A135-614B-9E21-DBC8FA08B2B9}">
+  <dimension ref="A1:K35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="K2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="K4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="K8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="K10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="K12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="K14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="K16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="K18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="K20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="K22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="K24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="K26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="K28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="K30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="K32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="K34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" display="http://apis.data.go.kr/B553077/api/open/sdsc2/storeZoneOne?key=9174&amp;servicekey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D" xr:uid="{3355EBC6-8EF1-7D46-B4A8-7AEC98E346E7}"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://apis.data.go.kr/B553077/api/open/sdsc2/storeZoneInRadius?radius=500&amp;cx=127.004528&amp;cy=37.567538&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D" xr:uid="{154AA2A2-70D3-4F43-8369-FCC18289875C}"/>
+    <hyperlink ref="C19" r:id="rId3" display="http://apis.data.go.kr/B553077/api/open/sdsc2/storeListInRectangle?minx=127.034113&amp;miny=37.509715&amp;maxx=127.035730&amp;maxy=37.510824&amp;indsLclsCd=Q&amp;indsMclsCd=Q12&amp;indsSclsCd=Q12A01&amp;numOfRows=2&amp;pageNo=1&amp;type=xml&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D" xr:uid="{64A77475-D885-F244-A822-68885F81614C}"/>
+    <hyperlink ref="C27" r:id="rId4" display="http://apis.data.go.kr/B553077/api/open/sdsc2/reqStoreModify?ServiceKey=서비스인증키&amp;bizesId=10868815&amp;bizesNm=백다방&amp;dongNo=101동...." xr:uid="{9B415A69-0800-A84D-87B9-AC5BB62B19CE}"/>
+    <hyperlink ref="C29" r:id="rId5" display="http://apis.data.go.kr/B553077/api/open/sdsc2/largeUpjongList?serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D" xr:uid="{9C1F586F-42D4-164A-8902-90A00A727485}"/>
+    <hyperlink ref="C35" r:id="rId6" display="http://apis.data.go.kr/B553077/api/open/sdsc2/baroApi?resId=dong&amp;catId=mega&amp;ServiceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D" xr:uid="{5BDC7464-03B4-5C41-9755-A74821655198}"/>
+    <hyperlink ref="C5" r:id="rId7" display="http://apis.data.go.kr/B553077/api/open/sdsc2/storeZoneInRectangle?minx=126.978020&amp;miny=37.557825&amp;maxx=126.987732&amp;maxy=37.562022&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D" xr:uid="{E44C9BBF-5E4E-B041-A84B-B7939016E76B}"/>
+    <hyperlink ref="C7" r:id="rId8" display="http://apis.data.go.kr/B553077/api/open/sdsc2/storeZoneInAdmi?divId=ctprvnCd&amp;key=11&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D" xr:uid="{3C2C962D-44EF-9D42-94FE-12B78D4A57DC}"/>
+    <hyperlink ref="C9" r:id="rId9" display="http://apis.data.go.kr/B553077/api/open/sdsc2/storeOne?key=19911025&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D" xr:uid="{E4B946B4-4253-6749-A4A9-00C1E43903B3}"/>
+    <hyperlink ref="C11" r:id="rId10" display="http://apis.data.go.kr/B553077/api/open/sdsc2/storeListInBuilding?key=3017011200113530000022216&amp;indsLclsCd=Q&amp;indsMclsCd=Q12&amp;indsSclsCd=Q12A01&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D" xr:uid="{9EF2D50A-1AFD-6B4F-96AF-8B5377E835DA}"/>
+    <hyperlink ref="C13" r:id="rId11" display="http://apis.data.go.kr/B553077/api/open/sdsc2/storeListInPnu?key=1123010300207370002&amp;indsLclsCd=D&amp;indsMclsCd=D10&amp;indsSclsCd=D10A05&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D" xr:uid="{34277718-4A4A-F64C-9FFB-E4554D60B5AD}"/>
+    <hyperlink ref="C15" r:id="rId12" display="http://apis.data.go.kr/B553077/api/open/sdsc2/storeListInDong?divId=ctprvnCd&amp;key=11&amp;indsMclsCd=Q12&amp;indsSclsCd=Q12A01&amp;divId=ctprvnCd&amp;numOfRows=2&amp;pageNo=1&amp;type=xml&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D" xr:uid="{AF4BAA5B-5831-1C48-B4E4-712F686155CF}"/>
+    <hyperlink ref="C17" r:id="rId13" display="http://apis.data.go.kr/B553077/api/open/sdsc2/storeListInArea?key=1882&amp;indsLclsCd=Q&amp;indsMclsCd=Q12&amp;indsSclsCd=Q12A01&amp;numOfRows=2&amp;pageNo=1&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D" xr:uid="{B47CEEF0-338D-BD47-8385-16DA88B40201}"/>
+    <hyperlink ref="C21" r:id="rId14" display="http://apis.data.go.kr/B553077/api/open/sdsc2/storeListInPolygon?key=POLYGON ((126.9204728 35.1523226,126.9192728 35.1531925,126.9181257 35.1522507,126.9193808 35.1514315,126.9204728 35.1523226))&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D" xr:uid="{D6AF3476-2D83-784B-87B2-FF34F6C7D761}"/>
+    <hyperlink ref="C23" r:id="rId15" display="http://apis.data.go.kr/B553077/api/open/sdsc2/storeListInUpjong?divId=indsLclsCd&amp;key=Q&amp;numOfRows=1&amp;pageNo=1&amp;type=xml&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D" xr:uid="{6BC8A410-077C-B643-A7C0-612618E22C35}"/>
+    <hyperlink ref="C25" r:id="rId16" display="http://apis.data.go.kr/B553077/api/open/sdsc2/storeListByDate?key=20210602&amp;indsLclsCd=Q&amp;indsMclsCd=Q12&amp;indsSclsCd=Q12A01&amp;numOfRows=1&amp;pageNo=1&amp;type=xml&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D" xr:uid="{91E784EB-B98A-B048-AAD0-40B673CD586C}"/>
+    <hyperlink ref="C31" r:id="rId17" display="http://apis.data.go.kr/B553077/api/open/sdsc2/middleUpjongList?indsLclsCd=D&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D" xr:uid="{BB823778-05D9-CD42-83C9-C7FABC385759}"/>
+    <hyperlink ref="C33" r:id="rId18" display="http://apis.data.go.kr/B553077/api/open/sdsc2/smallUpjongList?indsLclsCd=Q&amp;indsMclsCd=Q01&amp;serviceKey=zWJZJMGi7kBIlToG%2FGVb4RpeALKnhLOKl6B0XRnr%2Bs2w2WtifQ1c8ktURng7cT9gtnNh%2FjkBOrSD0rBqE2mPlA%3D%3D" xr:uid="{5721FD29-5F26-4749-B446-D26968573464}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>